--- a/Pin Out.xlsx
+++ b/Pin Out.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kennedy\Desktop\CropTop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7392E8A-C7B0-48E1-9286-BE665A0CECED}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AB82155-E6EB-4C56-941E-CF8396381F60}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8100" xr2:uid="{96B077CE-1DB9-42D8-ABCB-202F61D186A8}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="110">
   <si>
     <t>AERXERR/RG15</t>
   </si>
@@ -358,6 +358,9 @@
   </si>
   <si>
     <t>PROGRAM</t>
+  </si>
+  <si>
+    <t>e</t>
   </si>
 </sst>
 </file>
@@ -523,7 +526,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -556,6 +559,9 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -878,8 +884,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73935FFD-BF5E-4BF2-ADB9-AC79772A21EB}">
   <dimension ref="A1:G100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="A66" sqref="A66:B67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1425,6 +1431,9 @@
       <c r="D53" s="7" t="s">
         <v>101</v>
       </c>
+      <c r="E53" s="30" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
@@ -1537,7 +1546,7 @@
       <c r="A67" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="B67" s="17" t="s">
+      <c r="B67" s="31" t="s">
         <v>94</v>
       </c>
       <c r="F67" s="11" t="s">
@@ -1547,6 +1556,9 @@
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
         <v>58</v>
+      </c>
+      <c r="B68" s="32" t="s">
+        <v>92</v>
       </c>
       <c r="E68" s="25" t="s">
         <v>103</v>
@@ -1834,7 +1846,7 @@
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1844,7 +1856,7 @@
         <v>92</v>
       </c>
       <c r="B1">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
